--- a/src/main/resources/ExportTemplate/bienbangiaohang.xlsx
+++ b/src/main/resources/ExportTemplate/bienbangiaohang.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="2730"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="B19:O23"/>
 </workbook>
 </file>
 
@@ -273,7 +272,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,15 +323,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -364,9 +370,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -415,81 +421,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -551,7 +611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +646,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,449 +860,435 @@
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="0.42578125" style="44" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="8" style="44" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="21" style="44" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="44"/>
+    <col min="12" max="12" width="17.5703125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="44" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="44" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="44" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="44" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="44" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="48" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="47"/>
     </row>
     <row r="10" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="K10" s="5" t="s">
+      <c r="I10" s="49"/>
+      <c r="K10" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
     </row>
     <row r="11" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="K11" s="5" t="s">
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="K11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
     </row>
     <row r="12" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="B12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="K13" s="5" t="s">
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="K13" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="K14" s="6" t="s">
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="K14" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37" t="s">
+      <c r="G15" s="27"/>
+      <c r="H15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="28"/>
+      <c r="J15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37" t="s">
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="37" t="s">
+      <c r="N15" s="28"/>
+      <c r="O15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
     </row>
     <row r="17" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="27"/>
-      <c r="J18" s="32" t="s">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="J18" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="31" t="s">
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24" t="s">
+      <c r="Q18" s="60"/>
+      <c r="R18" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="s">
+      <c r="E19" s="62"/>
+      <c r="F19" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="26"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="29"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="65"/>
     </row>
     <row r="20" spans="1:18" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="26"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
+      <c r="H20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
     </row>
     <row r="21" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
+      <c r="H21" s="66"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="H22" s="26"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="H22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
     </row>
     <row r="24" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
     </row>
     <row r="26" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="35"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
+      <c r="H26" s="71"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+      <c r="H27" s="71"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="Q28" s="15" t="s">
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="Q28" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
     </row>
     <row r="30" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
     </row>
     <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-    </row>
-    <row r="33" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J34" s="15"/>
-    </row>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+    </row>
+    <row r="33" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J35" s="22"/>
+      <c r="J35" s="74"/>
     </row>
     <row r="36" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J36" s="22"/>
+      <c r="J36" s="74"/>
     </row>
     <row r="37" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J38" s="15"/>
-    </row>
+      <c r="J37" s="74"/>
+    </row>
+    <row r="38" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J39" s="22"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J40" s="22"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" spans="10:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J41" s="22"/>
+      <c r="J41" s="74"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="30">
-    <mergeCell ref="B2:G6"/>
-    <mergeCell ref="H2:N6"/>
-    <mergeCell ref="O2:Q6"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="J26:L27"/>
     <mergeCell ref="Q15:Q16"/>
@@ -1258,11 +1304,16 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B2:G6"/>
+    <mergeCell ref="H2:N6"/>
+    <mergeCell ref="O2:Q6"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
   </mergeCells>
   <pageMargins left="1.5" right="0" top="0.5" bottom="0.75" header="0.05" footer="0.3"/>
   <pageSetup scale="61" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -1304,100 +1355,100 @@
   <sheetData>
     <row r="1" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="48" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -1489,76 +1540,76 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="37" t="s">
+      <c r="N15" s="30"/>
+      <c r="O15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="30"/>
+      <c r="Q15" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="2:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="16"/>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
       <c r="O18" s="23" t="s">
         <v>67</v>
       </c>
@@ -1569,110 +1620,110 @@
     </row>
     <row r="19" spans="2:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="42"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="18"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="2:18" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="18"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
     </row>
     <row r="21" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="H22" s="18"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" spans="2:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
       <c r="O23" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
       <c r="O25" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="35"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
+      <c r="H26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+      <c r="H27" s="33"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
       <c r="Q28" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
     </row>
     <row r="30" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="15"/>
@@ -1704,19 +1755,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="O2:Q6"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="B2:G6"/>
-    <mergeCell ref="H2:N6"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="M18:N18"/>
@@ -1733,6 +1771,19 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="J21:L22"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="O2:Q6"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="B2:G6"/>
+    <mergeCell ref="H2:N6"/>
   </mergeCells>
   <pageMargins left="1.5" right="0" top="0.5" bottom="0.75" header="0.05" footer="0.3"/>
   <pageSetup scale="61" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -1772,100 +1823,100 @@
   <sheetData>
     <row r="1" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="48" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -1957,56 +2008,56 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="37" t="s">
+      <c r="N15" s="30"/>
+      <c r="O15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="30"/>
+      <c r="Q15" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -2015,10 +2066,10 @@
       <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="43">
         <v>4421012760</v>
       </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="19">
         <v>84842000</v>
       </c>
@@ -2035,10 +2086,10 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="38"/>
       <c r="H19" s="18"/>
       <c r="J19" s="15"/>
       <c r="K19" s="14"/>
